--- a/data/chunk_list/偏置等分分桶分析.xlsx
+++ b/data/chunk_list/偏置等分分桶分析.xlsx
@@ -8,21 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hale/PycharmProjects/batch_video_clawer/data/chunk_list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E3CF95-A136-0D4B-A356-F97A62B8C738}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C08DC0-EB93-2C4D-A458-1684F3D77A9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="900" windowWidth="28240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="880" windowWidth="28240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="偏置等分分桶分析" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>dynamic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>去重传_dynamic</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -5242,6 +5257,653 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-7D90-A840-9466-A481E84D51C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>偏置等分分桶分析!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>去重传_dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>偏置等分分桶分析!$A$2:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>810</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>990</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>偏置等分分桶分析!$I$2:$I$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>38008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37974</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37986</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37989</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37985</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37959</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37990</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37982</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37976</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37977</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37969</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37946</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37966</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37960</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37972</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37966</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37941</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37955</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37954</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>37939</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37938</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37950</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37949</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37957</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37954</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37946</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>37932</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>37917</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>37930</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>37956</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>37938</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>37942</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>37939</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37921</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>37919</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>37909</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37909</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>37934</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>37928</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>37916</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>37915</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37926</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>37915</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>37884</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>37907</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>37886</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>37893</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>37909</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>37893</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>37915</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>37906</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>37890</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>37895</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>37885</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>37902</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>37890</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>37868</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>37897</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>37874</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>37873</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>37874</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>37884</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37874</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>37901</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>37898</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>37845</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>37896</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>37861</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>37875</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>37882</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>37861</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>37890</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>37867</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>37857</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>37848</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>37850</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>37853</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>37847</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>37846</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>37849</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>37881</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>37815</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>37863</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>37852</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>37855</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>37845</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>37844</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3DC2-3644-AEE5-AD0E4CA80A17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6007,16 +6669,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6341,16 +7003,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1">
         <v>0</v>
       </c>
@@ -6372,8 +7034,11 @@
       <c r="H1" t="s">
         <v>0</v>
       </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>10</v>
       </c>
@@ -6398,8 +7063,11 @@
       <c r="H2">
         <v>37104</v>
       </c>
+      <c r="I2">
+        <v>38008</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>20</v>
       </c>
@@ -6424,8 +7092,11 @@
       <c r="H3">
         <v>36382</v>
       </c>
+      <c r="I3">
+        <v>38007</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>30</v>
       </c>
@@ -6450,8 +7121,11 @@
       <c r="H4">
         <v>36021</v>
       </c>
+      <c r="I4">
+        <v>38008</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>40</v>
       </c>
@@ -6476,8 +7150,11 @@
       <c r="H5">
         <v>35779</v>
       </c>
+      <c r="I5">
+        <v>38004</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>50</v>
       </c>
@@ -6502,8 +7179,11 @@
       <c r="H6">
         <v>35631</v>
       </c>
+      <c r="I6">
+        <v>38001</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>60</v>
       </c>
@@ -6528,8 +7208,11 @@
       <c r="H7">
         <v>35496</v>
       </c>
+      <c r="I7">
+        <v>38005</v>
+      </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>70</v>
       </c>
@@ -6554,8 +7237,11 @@
       <c r="H8">
         <v>35459</v>
       </c>
+      <c r="I8">
+        <v>37997</v>
+      </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>80</v>
       </c>
@@ -6580,8 +7266,11 @@
       <c r="H9">
         <v>35378</v>
       </c>
+      <c r="I9">
+        <v>37974</v>
+      </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>90</v>
       </c>
@@ -6606,8 +7295,11 @@
       <c r="H10">
         <v>34870</v>
       </c>
+      <c r="I10">
+        <v>37999</v>
+      </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>100</v>
       </c>
@@ -6632,8 +7324,11 @@
       <c r="H11">
         <v>34888</v>
       </c>
+      <c r="I11">
+        <v>37992</v>
+      </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>110</v>
       </c>
@@ -6658,8 +7353,11 @@
       <c r="H12">
         <v>34928</v>
       </c>
+      <c r="I12">
+        <v>37992</v>
+      </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>120</v>
       </c>
@@ -6684,8 +7382,11 @@
       <c r="H13">
         <v>34888</v>
       </c>
+      <c r="I13">
+        <v>37997</v>
+      </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>130</v>
       </c>
@@ -6710,8 +7411,11 @@
       <c r="H14">
         <v>34889</v>
       </c>
+      <c r="I14">
+        <v>37986</v>
+      </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>140</v>
       </c>
@@ -6736,8 +7440,11 @@
       <c r="H15">
         <v>34906</v>
       </c>
+      <c r="I15">
+        <v>37989</v>
+      </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>150</v>
       </c>
@@ -6762,8 +7469,11 @@
       <c r="H16">
         <v>34901</v>
       </c>
+      <c r="I16">
+        <v>37985</v>
+      </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>160</v>
       </c>
@@ -6788,8 +7498,11 @@
       <c r="H17">
         <v>34903</v>
       </c>
+      <c r="I17">
+        <v>37959</v>
+      </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>170</v>
       </c>
@@ -6814,8 +7527,11 @@
       <c r="H18">
         <v>34552</v>
       </c>
+      <c r="I18">
+        <v>37978</v>
+      </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>180</v>
       </c>
@@ -6840,8 +7556,11 @@
       <c r="H19">
         <v>34645</v>
       </c>
+      <c r="I19">
+        <v>37990</v>
+      </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>190</v>
       </c>
@@ -6866,8 +7585,11 @@
       <c r="H20">
         <v>34685</v>
       </c>
+      <c r="I20">
+        <v>37982</v>
+      </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>200</v>
       </c>
@@ -6892,8 +7614,11 @@
       <c r="H21">
         <v>34690</v>
       </c>
+      <c r="I21">
+        <v>37976</v>
+      </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>210</v>
       </c>
@@ -6918,8 +7643,11 @@
       <c r="H22">
         <v>34707</v>
       </c>
+      <c r="I22">
+        <v>37977</v>
+      </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>220</v>
       </c>
@@ -6944,8 +7672,11 @@
       <c r="H23">
         <v>34699</v>
       </c>
+      <c r="I23">
+        <v>37969</v>
+      </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>230</v>
       </c>
@@ -6970,8 +7701,11 @@
       <c r="H24">
         <v>34704</v>
       </c>
+      <c r="I24">
+        <v>37946</v>
+      </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>240</v>
       </c>
@@ -6996,8 +7730,11 @@
       <c r="H25">
         <v>34698</v>
       </c>
+      <c r="I25">
+        <v>37949</v>
+      </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>250</v>
       </c>
@@ -7022,8 +7759,11 @@
       <c r="H26">
         <v>34469</v>
       </c>
+      <c r="I26">
+        <v>37966</v>
+      </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>260</v>
       </c>
@@ -7048,8 +7788,11 @@
       <c r="H27">
         <v>34437</v>
       </c>
+      <c r="I27">
+        <v>37960</v>
+      </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>270</v>
       </c>
@@ -7074,8 +7817,11 @@
       <c r="H28">
         <v>34541</v>
       </c>
+      <c r="I28">
+        <v>37972</v>
+      </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>280</v>
       </c>
@@ -7100,8 +7846,11 @@
       <c r="H29">
         <v>34593</v>
       </c>
+      <c r="I29">
+        <v>37966</v>
+      </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>290</v>
       </c>
@@ -7126,8 +7875,11 @@
       <c r="H30">
         <v>34561</v>
       </c>
+      <c r="I30">
+        <v>37941</v>
+      </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>300</v>
       </c>
@@ -7152,8 +7904,11 @@
       <c r="H31">
         <v>34588</v>
       </c>
+      <c r="I31">
+        <v>37955</v>
+      </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>310</v>
       </c>
@@ -7178,8 +7933,11 @@
       <c r="H32">
         <v>34601</v>
       </c>
+      <c r="I32">
+        <v>37954</v>
+      </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>320</v>
       </c>
@@ -7204,8 +7962,11 @@
       <c r="H33">
         <v>34594</v>
       </c>
+      <c r="I33">
+        <v>37939</v>
+      </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>330</v>
       </c>
@@ -7230,8 +7991,11 @@
       <c r="H34">
         <v>34600</v>
       </c>
+      <c r="I34">
+        <v>37938</v>
+      </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>340</v>
       </c>
@@ -7256,8 +8020,11 @@
       <c r="H35">
         <v>34383</v>
       </c>
+      <c r="I35">
+        <v>37950</v>
+      </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>350</v>
       </c>
@@ -7282,8 +8049,11 @@
       <c r="H36">
         <v>34415</v>
       </c>
+      <c r="I36">
+        <v>37949</v>
+      </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>360</v>
       </c>
@@ -7308,8 +8078,11 @@
       <c r="H37">
         <v>34489</v>
       </c>
+      <c r="I37">
+        <v>37957</v>
+      </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>370</v>
       </c>
@@ -7334,8 +8107,11 @@
       <c r="H38">
         <v>34481</v>
       </c>
+      <c r="I38">
+        <v>37954</v>
+      </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>380</v>
       </c>
@@ -7360,8 +8136,11 @@
       <c r="H39">
         <v>34519</v>
       </c>
+      <c r="I39">
+        <v>37946</v>
+      </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>390</v>
       </c>
@@ -7386,8 +8165,11 @@
       <c r="H40">
         <v>34502</v>
       </c>
+      <c r="I40">
+        <v>37932</v>
+      </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>400</v>
       </c>
@@ -7412,8 +8194,11 @@
       <c r="H41">
         <v>34495</v>
       </c>
+      <c r="I41">
+        <v>37917</v>
+      </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>410</v>
       </c>
@@ -7438,8 +8223,11 @@
       <c r="H42">
         <v>34530</v>
       </c>
+      <c r="I42">
+        <v>37930</v>
+      </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>420</v>
       </c>
@@ -7464,8 +8252,11 @@
       <c r="H43">
         <v>34343</v>
       </c>
+      <c r="I43">
+        <v>37956</v>
+      </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>430</v>
       </c>
@@ -7490,8 +8281,11 @@
       <c r="H44">
         <v>34335</v>
       </c>
+      <c r="I44">
+        <v>37938</v>
+      </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>440</v>
       </c>
@@ -7516,8 +8310,11 @@
       <c r="H45">
         <v>34403</v>
       </c>
+      <c r="I45">
+        <v>37942</v>
+      </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>450</v>
       </c>
@@ -7542,8 +8339,11 @@
       <c r="H46">
         <v>34412</v>
       </c>
+      <c r="I46">
+        <v>37939</v>
+      </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>460</v>
       </c>
@@ -7568,8 +8368,11 @@
       <c r="H47">
         <v>34413</v>
       </c>
+      <c r="I47">
+        <v>37921</v>
+      </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>470</v>
       </c>
@@ -7594,8 +8397,11 @@
       <c r="H48">
         <v>34449</v>
       </c>
+      <c r="I48">
+        <v>37919</v>
+      </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>480</v>
       </c>
@@ -7620,8 +8426,11 @@
       <c r="H49">
         <v>34450</v>
       </c>
+      <c r="I49">
+        <v>37909</v>
+      </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>490</v>
       </c>
@@ -7646,8 +8455,11 @@
       <c r="H50">
         <v>34418</v>
       </c>
+      <c r="I50">
+        <v>37909</v>
+      </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>500</v>
       </c>
@@ -7672,8 +8484,11 @@
       <c r="H51">
         <v>34298</v>
       </c>
+      <c r="I51">
+        <v>37934</v>
+      </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>510</v>
       </c>
@@ -7698,8 +8513,11 @@
       <c r="H52">
         <v>34274</v>
       </c>
+      <c r="I52">
+        <v>37928</v>
+      </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>520</v>
       </c>
@@ -7724,8 +8542,11 @@
       <c r="H53">
         <v>34275</v>
       </c>
+      <c r="I53">
+        <v>37916</v>
+      </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>530</v>
       </c>
@@ -7750,8 +8571,11 @@
       <c r="H54">
         <v>34373</v>
       </c>
+      <c r="I54">
+        <v>37915</v>
+      </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>540</v>
       </c>
@@ -7776,8 +8600,11 @@
       <c r="H55">
         <v>34365</v>
       </c>
+      <c r="I55">
+        <v>37926</v>
+      </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>550</v>
       </c>
@@ -7802,8 +8629,11 @@
       <c r="H56">
         <v>34384</v>
       </c>
+      <c r="I56">
+        <v>37915</v>
+      </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>560</v>
       </c>
@@ -7828,8 +8658,11 @@
       <c r="H57">
         <v>34395</v>
       </c>
+      <c r="I57">
+        <v>37884</v>
+      </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>570</v>
       </c>
@@ -7854,8 +8687,11 @@
       <c r="H58">
         <v>34407</v>
       </c>
+      <c r="I58">
+        <v>37907</v>
+      </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>580</v>
       </c>
@@ -7880,8 +8716,11 @@
       <c r="H59">
         <v>34405</v>
       </c>
+      <c r="I59">
+        <v>37886</v>
+      </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>590</v>
       </c>
@@ -7906,8 +8745,11 @@
       <c r="H60">
         <v>34224</v>
       </c>
+      <c r="I60">
+        <v>37893</v>
+      </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>600</v>
       </c>
@@ -7932,8 +8774,11 @@
       <c r="H61">
         <v>34252</v>
       </c>
+      <c r="I61">
+        <v>37909</v>
+      </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>610</v>
       </c>
@@ -7958,8 +8803,11 @@
       <c r="H62">
         <v>34252</v>
       </c>
+      <c r="I62">
+        <v>37893</v>
+      </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>620</v>
       </c>
@@ -7984,8 +8832,11 @@
       <c r="H63">
         <v>34332</v>
       </c>
+      <c r="I63">
+        <v>37915</v>
+      </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>630</v>
       </c>
@@ -8010,8 +8861,11 @@
       <c r="H64">
         <v>34360</v>
       </c>
+      <c r="I64">
+        <v>37906</v>
+      </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>640</v>
       </c>
@@ -8036,8 +8890,11 @@
       <c r="H65">
         <v>34347</v>
       </c>
+      <c r="I65">
+        <v>37890</v>
+      </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>650</v>
       </c>
@@ -8062,8 +8919,11 @@
       <c r="H66">
         <v>34345</v>
       </c>
+      <c r="I66">
+        <v>37895</v>
+      </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>660</v>
       </c>
@@ -8088,8 +8948,11 @@
       <c r="H67">
         <v>34367</v>
       </c>
+      <c r="I67">
+        <v>37885</v>
+      </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>670</v>
       </c>
@@ -8114,8 +8977,11 @@
       <c r="H68">
         <v>34208</v>
       </c>
+      <c r="I68">
+        <v>37902</v>
+      </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>680</v>
       </c>
@@ -8140,8 +9006,11 @@
       <c r="H69">
         <v>34214</v>
       </c>
+      <c r="I69">
+        <v>37890</v>
+      </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>690</v>
       </c>
@@ -8166,8 +9035,11 @@
       <c r="H70">
         <v>34184</v>
       </c>
+      <c r="I70">
+        <v>37868</v>
+      </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>700</v>
       </c>
@@ -8192,8 +9064,11 @@
       <c r="H71">
         <v>34257</v>
       </c>
+      <c r="I71">
+        <v>37897</v>
+      </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>710</v>
       </c>
@@ -8218,8 +9093,11 @@
       <c r="H72">
         <v>34278</v>
       </c>
+      <c r="I72">
+        <v>37874</v>
+      </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>720</v>
       </c>
@@ -8244,8 +9122,11 @@
       <c r="H73">
         <v>34306</v>
       </c>
+      <c r="I73">
+        <v>37873</v>
+      </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>730</v>
       </c>
@@ -8270,8 +9151,11 @@
       <c r="H74">
         <v>34287</v>
       </c>
+      <c r="I74">
+        <v>37874</v>
+      </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>740</v>
       </c>
@@ -8296,8 +9180,11 @@
       <c r="H75">
         <v>34313</v>
       </c>
+      <c r="I75">
+        <v>37884</v>
+      </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>750</v>
       </c>
@@ -8322,8 +9209,11 @@
       <c r="H76">
         <v>34171</v>
       </c>
+      <c r="I76">
+        <v>37874</v>
+      </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>760</v>
       </c>
@@ -8348,8 +9238,11 @@
       <c r="H77">
         <v>34212</v>
       </c>
+      <c r="I77">
+        <v>37901</v>
+      </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>770</v>
       </c>
@@ -8374,8 +9267,11 @@
       <c r="H78">
         <v>34196</v>
       </c>
+      <c r="I78">
+        <v>37898</v>
+      </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>780</v>
       </c>
@@ -8400,8 +9296,11 @@
       <c r="H79">
         <v>34147</v>
       </c>
+      <c r="I79">
+        <v>37845</v>
+      </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>790</v>
       </c>
@@ -8426,8 +9325,11 @@
       <c r="H80">
         <v>34309</v>
       </c>
+      <c r="I80">
+        <v>37896</v>
+      </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>800</v>
       </c>
@@ -8452,8 +9354,11 @@
       <c r="H81">
         <v>34254</v>
       </c>
+      <c r="I81">
+        <v>37861</v>
+      </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>810</v>
       </c>
@@ -8478,8 +9383,11 @@
       <c r="H82">
         <v>34269</v>
       </c>
+      <c r="I82">
+        <v>37875</v>
+      </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>820</v>
       </c>
@@ -8504,8 +9412,11 @@
       <c r="H83">
         <v>34296</v>
       </c>
+      <c r="I83">
+        <v>37882</v>
+      </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>830</v>
       </c>
@@ -8530,8 +9441,11 @@
       <c r="H84">
         <v>34258</v>
       </c>
+      <c r="I84">
+        <v>37861</v>
+      </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>840</v>
       </c>
@@ -8556,8 +9470,11 @@
       <c r="H85">
         <v>34154</v>
       </c>
+      <c r="I85">
+        <v>37890</v>
+      </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>850</v>
       </c>
@@ -8582,8 +9499,11 @@
       <c r="H86">
         <v>34154</v>
       </c>
+      <c r="I86">
+        <v>37867</v>
+      </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>860</v>
       </c>
@@ -8608,8 +9528,11 @@
       <c r="H87">
         <v>34131</v>
       </c>
+      <c r="I87">
+        <v>37857</v>
+      </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>870</v>
       </c>
@@ -8634,8 +9557,11 @@
       <c r="H88">
         <v>34161</v>
       </c>
+      <c r="I88">
+        <v>37848</v>
+      </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>880</v>
       </c>
@@ -8660,8 +9586,11 @@
       <c r="H89">
         <v>34217</v>
       </c>
+      <c r="I89">
+        <v>37850</v>
+      </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>890</v>
       </c>
@@ -8686,8 +9615,11 @@
       <c r="H90">
         <v>34229</v>
       </c>
+      <c r="I90">
+        <v>37853</v>
+      </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>900</v>
       </c>
@@ -8712,8 +9644,11 @@
       <c r="H91">
         <v>34214</v>
       </c>
+      <c r="I91">
+        <v>37847</v>
+      </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>910</v>
       </c>
@@ -8738,8 +9673,11 @@
       <c r="H92">
         <v>34232</v>
       </c>
+      <c r="I92">
+        <v>37846</v>
+      </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>920</v>
       </c>
@@ -8764,8 +9702,11 @@
       <c r="H93">
         <v>34069</v>
       </c>
+      <c r="I93">
+        <v>37849</v>
+      </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>930</v>
       </c>
@@ -8790,8 +9731,11 @@
       <c r="H94">
         <v>34133</v>
       </c>
+      <c r="I94">
+        <v>37881</v>
+      </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>940</v>
       </c>
@@ -8816,8 +9760,11 @@
       <c r="H95">
         <v>34082</v>
       </c>
+      <c r="I95">
+        <v>37815</v>
+      </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>950</v>
       </c>
@@ -8842,8 +9789,11 @@
       <c r="H96">
         <v>34139</v>
       </c>
+      <c r="I96">
+        <v>37863</v>
+      </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>960</v>
       </c>
@@ -8868,8 +9818,11 @@
       <c r="H97">
         <v>34115</v>
       </c>
+      <c r="I97">
+        <v>37852</v>
+      </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>970</v>
       </c>
@@ -8894,8 +9847,11 @@
       <c r="H98">
         <v>34184</v>
       </c>
+      <c r="I98">
+        <v>37855</v>
+      </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>980</v>
       </c>
@@ -8920,8 +9876,11 @@
       <c r="H99">
         <v>34209</v>
       </c>
+      <c r="I99">
+        <v>37845</v>
+      </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>990</v>
       </c>
@@ -8945,6 +9904,9 @@
       </c>
       <c r="H100">
         <v>34205</v>
+      </c>
+      <c r="I100">
+        <v>37844</v>
       </c>
     </row>
   </sheetData>

--- a/data/chunk_list/偏置等分分桶分析.xlsx
+++ b/data/chunk_list/偏置等分分桶分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hale/PycharmProjects/batch_video_clawer/data/chunk_list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C08DC0-EB93-2C4D-A458-1684F3D77A9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6B30CD-EE67-E740-BB1B-BA70BD6E10CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="880" windowWidth="28240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="28240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="偏置等分分桶分析" sheetId="1" r:id="rId1"/>
@@ -6670,15 +6670,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7005,9 +7005,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
